--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9334919999999999</v>
+        <v>0.9458723333333334</v>
       </c>
       <c r="H2">
-        <v>2.800476</v>
+        <v>2.837617</v>
       </c>
       <c r="I2">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="J2">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.2939</v>
+        <v>8.430598666666667</v>
       </c>
       <c r="N2">
-        <v>66.88170000000001</v>
+        <v>25.291796</v>
       </c>
       <c r="O2">
-        <v>0.3209125068732573</v>
+        <v>0.173137200317126</v>
       </c>
       <c r="P2">
-        <v>0.3209125068732573</v>
+        <v>0.1731372003171259</v>
       </c>
       <c r="Q2">
-        <v>20.8111772988</v>
+        <v>7.974270032236889</v>
       </c>
       <c r="R2">
-        <v>187.3005956892</v>
+        <v>71.768430290132</v>
       </c>
       <c r="S2">
-        <v>0.06710141518762043</v>
+        <v>0.03244048050444767</v>
       </c>
       <c r="T2">
-        <v>0.06710141518762042</v>
+        <v>0.03244048050444766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9334919999999999</v>
+        <v>0.9458723333333334</v>
       </c>
       <c r="H3">
-        <v>2.800476</v>
+        <v>2.837617</v>
       </c>
       <c r="I3">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="J3">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>68.43923599999999</v>
       </c>
       <c r="O3">
-        <v>0.3283858932002398</v>
+        <v>0.4685067724286191</v>
       </c>
       <c r="P3">
-        <v>0.3283858932002397</v>
+        <v>0.468506772428619</v>
       </c>
       <c r="Q3">
-        <v>21.295826430704</v>
+        <v>21.57825994895689</v>
       </c>
       <c r="R3">
-        <v>191.662437876336</v>
+        <v>194.204339540612</v>
       </c>
       <c r="S3">
-        <v>0.06866406789838682</v>
+        <v>0.08778347339181818</v>
       </c>
       <c r="T3">
-        <v>0.0686640678983868</v>
+        <v>0.08778347339181815</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9334919999999999</v>
+        <v>0.9458723333333334</v>
       </c>
       <c r="H4">
-        <v>2.800476</v>
+        <v>2.837617</v>
       </c>
       <c r="I4">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="J4">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.219369333333334</v>
+        <v>5.125375333333333</v>
       </c>
       <c r="N4">
-        <v>15.658108</v>
+        <v>15.376126</v>
       </c>
       <c r="O4">
-        <v>0.07513090563146878</v>
+        <v>0.1052586145864599</v>
       </c>
       <c r="P4">
-        <v>0.07513090563146876</v>
+        <v>0.1052586145864599</v>
       </c>
       <c r="Q4">
-        <v>4.872239517712</v>
+        <v>4.847950725749111</v>
       </c>
       <c r="R4">
-        <v>43.850155659408</v>
+        <v>43.631556531742</v>
       </c>
       <c r="S4">
-        <v>0.01570954694573554</v>
+        <v>0.01972216270196592</v>
       </c>
       <c r="T4">
-        <v>0.01570954694573554</v>
+        <v>0.01972216270196592</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9334919999999999</v>
+        <v>0.9458723333333334</v>
       </c>
       <c r="H5">
-        <v>2.800476</v>
+        <v>2.837617</v>
       </c>
       <c r="I5">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="J5">
-        <v>0.209095668602663</v>
+        <v>0.1873686327665471</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.143989</v>
+        <v>12.32411466666667</v>
       </c>
       <c r="N5">
-        <v>57.431967</v>
+        <v>36.972344</v>
       </c>
       <c r="O5">
-        <v>0.2755706942950342</v>
+        <v>0.2530974126677951</v>
       </c>
       <c r="P5">
-        <v>0.2755706942950341</v>
+        <v>0.2530974126677951</v>
       </c>
       <c r="Q5">
-        <v>17.870760579588</v>
+        <v>11.65703909602756</v>
       </c>
       <c r="R5">
-        <v>160.836845216292</v>
+        <v>104.913351864248</v>
       </c>
       <c r="S5">
-        <v>0.05762063857092022</v>
+        <v>0.04742251616831532</v>
       </c>
       <c r="T5">
-        <v>0.05762063857092022</v>
+        <v>0.04742251616831532</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>5.893002</v>
       </c>
       <c r="I6">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="J6">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.2939</v>
+        <v>8.430598666666667</v>
       </c>
       <c r="N6">
-        <v>66.88170000000001</v>
+        <v>25.291796</v>
       </c>
       <c r="O6">
-        <v>0.3209125068732573</v>
+        <v>0.173137200317126</v>
       </c>
       <c r="P6">
-        <v>0.3209125068732573</v>
+        <v>0.1731372003171259</v>
       </c>
       <c r="Q6">
-        <v>43.79266576260001</v>
+        <v>16.560511601288</v>
       </c>
       <c r="R6">
-        <v>394.1339918634001</v>
+        <v>149.044604411592</v>
       </c>
       <c r="S6">
-        <v>0.1412005580135226</v>
+        <v>0.06737054947643431</v>
       </c>
       <c r="T6">
-        <v>0.1412005580135225</v>
+        <v>0.0673705494764343</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>5.893002</v>
       </c>
       <c r="I7">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="J7">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>68.43923599999999</v>
       </c>
       <c r="O7">
-        <v>0.3283858932002398</v>
+        <v>0.4685067724286191</v>
       </c>
       <c r="P7">
-        <v>0.3283858932002397</v>
+        <v>0.468506772428619</v>
       </c>
       <c r="Q7">
         <v>44.812506069608</v>
@@ -883,10 +883,10 @@
         <v>403.312554626472</v>
       </c>
       <c r="S7">
-        <v>0.1444888259900565</v>
+        <v>0.1823037373489556</v>
       </c>
       <c r="T7">
-        <v>0.1444888259900564</v>
+        <v>0.1823037373489555</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>5.893002</v>
       </c>
       <c r="I8">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="J8">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.219369333333334</v>
+        <v>5.125375333333333</v>
       </c>
       <c r="N8">
-        <v>15.658108</v>
+        <v>15.376126</v>
       </c>
       <c r="O8">
-        <v>0.07513090563146878</v>
+        <v>0.1052586145864599</v>
       </c>
       <c r="P8">
-        <v>0.07513090563146876</v>
+        <v>0.1052586145864599</v>
       </c>
       <c r="Q8">
-        <v>10.252584640024</v>
+        <v>10.067949030028</v>
       </c>
       <c r="R8">
-        <v>92.27326176021602</v>
+        <v>90.61154127025199</v>
       </c>
       <c r="S8">
-        <v>0.03305737723526767</v>
+        <v>0.04095786860841705</v>
       </c>
       <c r="T8">
-        <v>0.03305737723526767</v>
+        <v>0.04095786860841705</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>5.893002</v>
       </c>
       <c r="I9">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="J9">
-        <v>0.4399970552387631</v>
+        <v>0.3891165466060174</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.143989</v>
+        <v>12.32411466666667</v>
       </c>
       <c r="N9">
-        <v>57.431967</v>
+        <v>36.972344</v>
       </c>
       <c r="O9">
-        <v>0.2755706942950342</v>
+        <v>0.2530974126677951</v>
       </c>
       <c r="P9">
-        <v>0.2755706942950341</v>
+        <v>0.2530974126677951</v>
       </c>
       <c r="Q9">
-        <v>37.605188488326</v>
+        <v>24.208677459632</v>
       </c>
       <c r="R9">
-        <v>338.446696394934</v>
+        <v>217.878097136688</v>
       </c>
       <c r="S9">
-        <v>0.1212502939999165</v>
+        <v>0.09848439117221051</v>
       </c>
       <c r="T9">
-        <v>0.1212502939999164</v>
+        <v>0.09848439117221051</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.413418666666667</v>
+        <v>1.499502333333333</v>
       </c>
       <c r="H10">
-        <v>4.240256</v>
+        <v>4.498507</v>
       </c>
       <c r="I10">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="J10">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.2939</v>
+        <v>8.430598666666667</v>
       </c>
       <c r="N10">
-        <v>66.88170000000001</v>
+        <v>25.291796</v>
       </c>
       <c r="O10">
-        <v>0.3209125068732573</v>
+        <v>0.173137200317126</v>
       </c>
       <c r="P10">
-        <v>0.3209125068732573</v>
+        <v>0.1731372003171259</v>
       </c>
       <c r="Q10">
-        <v>31.51061441280001</v>
+        <v>12.64170237206356</v>
       </c>
       <c r="R10">
-        <v>283.5955297152</v>
+        <v>113.775321348572</v>
       </c>
       <c r="S10">
-        <v>0.101599577485327</v>
+        <v>0.05142826837893252</v>
       </c>
       <c r="T10">
-        <v>0.101599577485327</v>
+        <v>0.05142826837893251</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.413418666666667</v>
+        <v>1.499502333333333</v>
       </c>
       <c r="H11">
-        <v>4.240256</v>
+        <v>4.498507</v>
       </c>
       <c r="I11">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="J11">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>68.43923599999999</v>
       </c>
       <c r="O11">
-        <v>0.3283858932002398</v>
+        <v>0.4685067724286191</v>
       </c>
       <c r="P11">
-        <v>0.3283858932002397</v>
+        <v>0.468506772428619</v>
       </c>
       <c r="Q11">
-        <v>32.24443123160177</v>
+        <v>34.20826469118355</v>
       </c>
       <c r="R11">
-        <v>290.1998810844159</v>
+        <v>307.874382220652</v>
       </c>
       <c r="S11">
-        <v>0.103965620805371</v>
+        <v>0.1391641541255947</v>
       </c>
       <c r="T11">
-        <v>0.103965620805371</v>
+        <v>0.1391641541255947</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.413418666666667</v>
+        <v>1.499502333333333</v>
       </c>
       <c r="H12">
-        <v>4.240256</v>
+        <v>4.498507</v>
       </c>
       <c r="I12">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="J12">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.219369333333334</v>
+        <v>5.125375333333333</v>
       </c>
       <c r="N12">
-        <v>15.658108</v>
+        <v>15.376126</v>
       </c>
       <c r="O12">
-        <v>0.07513090563146878</v>
+        <v>0.1052586145864599</v>
       </c>
       <c r="P12">
-        <v>0.07513090563146876</v>
+        <v>0.1052586145864599</v>
       </c>
       <c r="Q12">
-        <v>7.377154043960889</v>
+        <v>7.685512271542445</v>
       </c>
       <c r="R12">
-        <v>66.394386395648</v>
+        <v>69.16961044388199</v>
       </c>
       <c r="S12">
-        <v>0.02378613517628318</v>
+        <v>0.03126577229059898</v>
       </c>
       <c r="T12">
-        <v>0.02378613517628318</v>
+        <v>0.03126577229059898</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.413418666666667</v>
+        <v>1.499502333333333</v>
       </c>
       <c r="H13">
-        <v>4.240256</v>
+        <v>4.498507</v>
       </c>
       <c r="I13">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="J13">
-        <v>0.3165958799027214</v>
+        <v>0.2970376573303378</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.143989</v>
+        <v>12.32411466666667</v>
       </c>
       <c r="N13">
-        <v>57.431967</v>
+        <v>36.972344</v>
       </c>
       <c r="O13">
-        <v>0.2755706942950342</v>
+        <v>0.2530974126677951</v>
       </c>
       <c r="P13">
-        <v>0.2755706942950341</v>
+        <v>0.2530974126677951</v>
       </c>
       <c r="Q13">
-        <v>27.05847140706133</v>
+        <v>18.48003869893422</v>
       </c>
       <c r="R13">
-        <v>243.526242663552</v>
+        <v>166.320348290408</v>
       </c>
       <c r="S13">
-        <v>0.08724454643574019</v>
+        <v>0.07517946253521163</v>
       </c>
       <c r="T13">
-        <v>0.08724454643574016</v>
+        <v>0.07517946253521163</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1531806666666667</v>
+        <v>0.6384806666666667</v>
       </c>
       <c r="H14">
-        <v>0.459542</v>
+        <v>1.915442</v>
       </c>
       <c r="I14">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="J14">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.2939</v>
+        <v>8.430598666666667</v>
       </c>
       <c r="N14">
-        <v>66.88170000000001</v>
+        <v>25.291796</v>
       </c>
       <c r="O14">
-        <v>0.3209125068732573</v>
+        <v>0.173137200317126</v>
       </c>
       <c r="P14">
-        <v>0.3209125068732573</v>
+        <v>0.1731372003171259</v>
       </c>
       <c r="Q14">
-        <v>3.4149944646</v>
+        <v>5.382774257092445</v>
       </c>
       <c r="R14">
-        <v>30.73495018140001</v>
+        <v>48.444968313832</v>
       </c>
       <c r="S14">
-        <v>0.01101095618678734</v>
+        <v>0.02189790195731145</v>
       </c>
       <c r="T14">
-        <v>0.01101095618678734</v>
+        <v>0.02189790195731145</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1531806666666667</v>
+        <v>0.6384806666666667</v>
       </c>
       <c r="H15">
-        <v>0.459542</v>
+        <v>1.915442</v>
       </c>
       <c r="I15">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="J15">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>68.43923599999999</v>
       </c>
       <c r="O15">
-        <v>0.3283858932002398</v>
+        <v>0.4685067724286191</v>
       </c>
       <c r="P15">
-        <v>0.3283858932002397</v>
+        <v>0.468506772428619</v>
       </c>
       <c r="Q15">
-        <v>3.494522598879111</v>
+        <v>14.56570967581244</v>
       </c>
       <c r="R15">
-        <v>31.450703389912</v>
+        <v>131.091387082312</v>
       </c>
       <c r="S15">
-        <v>0.01126737850642551</v>
+        <v>0.05925540756225064</v>
       </c>
       <c r="T15">
-        <v>0.01126737850642551</v>
+        <v>0.05925540756225063</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1531806666666667</v>
+        <v>0.6384806666666667</v>
       </c>
       <c r="H16">
-        <v>0.459542</v>
+        <v>1.915442</v>
       </c>
       <c r="I16">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="J16">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.219369333333334</v>
+        <v>5.125375333333333</v>
       </c>
       <c r="N16">
-        <v>15.658108</v>
+        <v>15.376126</v>
       </c>
       <c r="O16">
-        <v>0.07513090563146878</v>
+        <v>0.1052586145864599</v>
       </c>
       <c r="P16">
-        <v>0.07513090563146876</v>
+        <v>0.1052586145864599</v>
       </c>
       <c r="Q16">
-        <v>0.7995064740595555</v>
+        <v>3.272453059743556</v>
       </c>
       <c r="R16">
-        <v>7.195558266536001</v>
+        <v>29.452077537692</v>
       </c>
       <c r="S16">
-        <v>0.002577846274182391</v>
+        <v>0.01331281098547796</v>
       </c>
       <c r="T16">
-        <v>0.00257784627418239</v>
+        <v>0.01331281098547796</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1531806666666667</v>
+        <v>0.6384806666666667</v>
       </c>
       <c r="H17">
-        <v>0.459542</v>
+        <v>1.915442</v>
       </c>
       <c r="I17">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="J17">
-        <v>0.03431139625585257</v>
+        <v>0.1264771632970977</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.143989</v>
+        <v>12.32411466666667</v>
       </c>
       <c r="N17">
-        <v>57.431967</v>
+        <v>36.972344</v>
       </c>
       <c r="O17">
-        <v>0.2755706942950342</v>
+        <v>0.2530974126677951</v>
       </c>
       <c r="P17">
-        <v>0.2755706942950341</v>
+        <v>0.2530974126677951</v>
       </c>
       <c r="Q17">
-        <v>2.932488997679334</v>
+        <v>7.868708948449778</v>
       </c>
       <c r="R17">
-        <v>26.392400979114</v>
+        <v>70.818380536048</v>
       </c>
       <c r="S17">
-        <v>0.009455215288457329</v>
+        <v>0.03201104279205765</v>
       </c>
       <c r="T17">
-        <v>0.009455215288457327</v>
+        <v>0.03201104279205765</v>
       </c>
     </row>
   </sheetData>
